--- a/TabUltra Project Schedule.xlsx
+++ b/TabUltra Project Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC GAMER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B6D282-1159-4328-8C39-2DA349F36408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826189AF-6DE9-43D2-80F9-B2989DCCFA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>Quality Assurance Plan</t>
   </si>
@@ -1310,45 +1310,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1364,6 +1325,45 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1458,120 +1458,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5583A640-E168-498A-AFFA-7922C7AF6255}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9134475" y="64770"/>
-          <a:ext cx="1447800" cy="325755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F85F6F-5D75-40DF-B03F-4870AF33E441}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525000" y="3343275"/>
-          <a:ext cx="3076575" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1685,7 +1571,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1799,7 +1685,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1854,7 +1740,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2232,7 +2118,7 @@
   <dimension ref="B1:AJ33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2258,9 +2144,7 @@
     </row>
     <row r="2" spans="2:36" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
-      <c r="Y2" s="99" t="s">
-        <v>48</v>
-      </c>
+      <c r="Y2" s="99"/>
       <c r="Z2" s="63"/>
       <c r="AA2" s="63"/>
       <c r="AB2" s="63"/>
@@ -2272,15 +2156,13 @@
       <c r="D3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="118">
         <v>44597</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
-      <c r="Y3" s="105" t="s">
-        <v>37</v>
-      </c>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="Y3" s="105"/>
     </row>
     <row r="4" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="W4" s="5"/>
@@ -2356,16 +2238,14 @@
         <v>11</v>
       </c>
       <c r="W5" s="52"/>
-      <c r="Y5" s="100" t="s">
-        <v>59</v>
-      </c>
+      <c r="Y5" s="100"/>
       <c r="Z5" s="40"/>
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
       <c r="AC5" s="25"/>
     </row>
     <row r="6" spans="2:36" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="116" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="53">
@@ -2441,7 +2321,7 @@
       <c r="AC6" s="25"/>
     </row>
     <row r="7" spans="2:36" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="108"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="58">
         <f>C6</f>
         <v>44597</v>
@@ -2514,11 +2394,11 @@
       <c r="B8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="55"/>
       <c r="G8" s="56"/>
       <c r="H8" s="55"/>
@@ -2537,21 +2417,19 @@
       <c r="U8" s="56"/>
       <c r="V8" s="55"/>
       <c r="W8" s="57"/>
-      <c r="Y8" s="103" t="s">
-        <v>56</v>
-      </c>
+      <c r="Y8" s="103"/>
       <c r="Z8" s="40"/>
     </row>
     <row r="9" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
       <c r="I9" s="7"/>
@@ -2569,23 +2447,20 @@
       <c r="U9" s="7"/>
       <c r="V9" s="8"/>
       <c r="W9" s="15"/>
-      <c r="Y9" s="104" t="str">
-        <f>HYPERLINK("https://www.vertex42.com/ExcelTemplates/excel-gantt-chart.html?utm_source=project-schedule&amp;utm_campaign=templates&amp;utm_content=related","► Gantt Chart Template")</f>
-        <v>► Gantt Chart Template</v>
-      </c>
+      <c r="Y9" s="104"/>
       <c r="Z9" s="41"/>
     </row>
     <row r="10" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="46"/>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
       <c r="K10" s="7"/>
       <c r="L10" s="8"/>
       <c r="M10" s="7"/>
@@ -2599,21 +2474,18 @@
       <c r="U10" s="7"/>
       <c r="V10" s="8"/>
       <c r="W10" s="15"/>
-      <c r="Y10" s="104" t="str">
-        <f>HYPERLINK("https://www.vertex42.com/ExcelTemplates/excel-project-management.html?utm_source=project-schedule&amp;utm_campaign=templates&amp;utm_content=related","► Project Management Templates")</f>
-        <v>► Project Management Templates</v>
-      </c>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="41"/>
     </row>
     <row r="11" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="46"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="123"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="123"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="8"/>
       <c r="I11" s="50"/>
       <c r="J11" s="8"/>
@@ -2630,10 +2502,7 @@
       <c r="U11" s="50"/>
       <c r="V11" s="8"/>
       <c r="W11" s="15"/>
-      <c r="Y11" s="104" t="str">
-        <f>HYPERLINK("https://www.vertex42.com/ExcelTemplates/business-templates.html?utm_source=project-schedule&amp;utm_campaign=templates&amp;utm_content=related","► Business Templates")</f>
-        <v>► Business Templates</v>
-      </c>
+      <c r="Y11" s="104"/>
       <c r="Z11" s="42"/>
     </row>
     <row r="12" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2643,13 +2512,13 @@
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125" t="s">
+      <c r="F12" s="111"/>
+      <c r="G12" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
       <c r="T12" s="8"/>
       <c r="U12" s="7"/>
       <c r="V12" s="8"/>
@@ -2664,18 +2533,18 @@
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="8"/>
@@ -2696,12 +2565,12 @@
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="8"/>
@@ -2730,12 +2599,12 @@
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="J15" s="120" t="s">
+      <c r="J15" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
       <c r="N15" s="8"/>
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
@@ -2763,13 +2632,13 @@
       <c r="H16" s="8"/>
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="120" t="s">
+      <c r="K16" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="8"/>
@@ -2786,19 +2655,19 @@
       <c r="AJ16" s="62"/>
     </row>
     <row r="17" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="128"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="120" t="s">
+      <c r="G17" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
       <c r="M17" s="7"/>
       <c r="N17" s="8"/>
       <c r="O17" s="7"/>
@@ -2827,12 +2696,12 @@
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
-      <c r="L18" s="120" t="s">
+      <c r="L18" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="8"/>
@@ -2859,15 +2728,15 @@
       <c r="K19" s="7"/>
       <c r="L19" s="8"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="126" t="s">
+      <c r="N19" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="127"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="114"/>
       <c r="U19" s="7"/>
       <c r="V19" s="8"/>
       <c r="W19" s="15"/>
@@ -2890,12 +2759,12 @@
       <c r="L20" s="8"/>
       <c r="M20" s="7"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="126" t="s">
+      <c r="O20" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
       <c r="T20" s="8"/>
       <c r="U20" s="7"/>
       <c r="V20" s="8"/>
@@ -2917,13 +2786,13 @@
       <c r="L21" s="8"/>
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
-      <c r="P21" s="126" t="s">
+      <c r="P21" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
       <c r="U21" s="7"/>
       <c r="V21" s="8"/>
       <c r="W21" s="15"/>
@@ -2945,11 +2814,11 @@
       <c r="M22" s="7"/>
       <c r="N22" s="8"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="126" t="s">
+      <c r="P22" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
       <c r="U22" s="7"/>
@@ -2973,11 +2842,11 @@
       <c r="N23" s="8"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="126" t="s">
+      <c r="Q23" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
       <c r="T23" s="8"/>
       <c r="U23" s="7"/>
       <c r="V23" s="8"/>
@@ -3006,13 +2875,9 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="Y3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.35" header="0.25" footer="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3063,12 +2928,12 @@
       <c r="D3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="118">
         <v>43619</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="AC3" s="105" t="s">
         <v>37</v>
       </c>
@@ -3191,7 +3056,7 @@
       <c r="AG5" s="25"/>
     </row>
     <row r="6" spans="2:40" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="112"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="72">
         <f>DATE(YEAR(E3),MONTH(E3),1)</f>
         <v>43617</v>
@@ -3297,7 +3162,7 @@
       <c r="AG6" s="25"/>
     </row>
     <row r="7" spans="2:40" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="113"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="74">
         <f>C6</f>
         <v>43617</v>
@@ -4073,12 +3938,12 @@
       <c r="D3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="118">
         <v>41644</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="Y3" s="105" t="s">
         <v>37</v>
       </c>
@@ -4158,7 +4023,7 @@
       </c>
     </row>
     <row r="6" spans="2:25" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="121" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="53">
@@ -4246,7 +4111,7 @@
       </c>
     </row>
     <row r="7" spans="2:25" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="113"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="58">
         <f>C6</f>
         <v>41644</v>
@@ -4355,7 +4220,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="17"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="117" t="s">
+      <c r="V8" s="126" t="s">
         <v>45</v>
       </c>
       <c r="W8" s="14"/>
@@ -4388,7 +4253,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="118"/>
+      <c r="V9" s="127"/>
       <c r="W9" s="15"/>
       <c r="Y9" s="104" t="str">
         <f>HYPERLINK("https://www.vertex42.com/ExcelTemplates/excel-gantt-chart.html?utm_source=project-schedule&amp;utm_campaign=templates&amp;utm_content=related","► Gantt Chart Template")</f>
@@ -4418,7 +4283,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="118"/>
+      <c r="V10" s="127"/>
       <c r="W10" s="15"/>
       <c r="Y10" s="104" t="str">
         <f>HYPERLINK("https://www.vertex42.com/ExcelTemplates/excel-project-management.html?utm_source=project-schedule&amp;utm_campaign=templates&amp;utm_content=related","► Project Management Templates")</f>
@@ -4450,7 +4315,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="118"/>
+      <c r="V11" s="127"/>
       <c r="W11" s="15"/>
       <c r="Y11" s="104" t="str">
         <f>HYPERLINK("https://www.vertex42.com/ExcelTemplates/business-templates.html?utm_source=project-schedule&amp;utm_campaign=templates&amp;utm_content=related","► Business Templates")</f>
@@ -4482,7 +4347,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="118"/>
+      <c r="V12" s="127"/>
       <c r="W12" s="15"/>
       <c r="Y12" s="102"/>
     </row>
@@ -4509,7 +4374,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="118"/>
+      <c r="V13" s="127"/>
       <c r="W13" s="15"/>
       <c r="Y13" s="102"/>
     </row>
@@ -4536,7 +4401,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="118"/>
+      <c r="V14" s="127"/>
       <c r="W14" s="15"/>
       <c r="Y14" s="102"/>
     </row>
@@ -4563,7 +4428,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="118"/>
+      <c r="V15" s="127"/>
       <c r="W15" s="15"/>
       <c r="Y15" s="102"/>
     </row>
@@ -4590,7 +4455,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="118"/>
+      <c r="V16" s="127"/>
       <c r="W16" s="15"/>
       <c r="Y16" s="102"/>
     </row>
@@ -4604,7 +4469,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="114" t="s">
+      <c r="I17" s="123" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="65" t="s">
@@ -4621,7 +4486,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="118"/>
+      <c r="V17" s="127"/>
       <c r="W17" s="15"/>
       <c r="Y17" s="102"/>
     </row>
@@ -4635,7 +4500,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="115"/>
+      <c r="I18" s="124"/>
       <c r="J18" s="65" t="s">
         <v>10</v>
       </c>
@@ -4650,7 +4515,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="118"/>
+      <c r="V18" s="127"/>
       <c r="W18" s="15"/>
       <c r="Y18" s="102"/>
     </row>
@@ -4662,7 +4527,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="115"/>
+      <c r="I19" s="124"/>
       <c r="J19" s="8"/>
       <c r="K19" s="65" t="s">
         <v>11</v>
@@ -4677,7 +4542,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="118"/>
+      <c r="V19" s="127"/>
       <c r="W19" s="15"/>
       <c r="Y19" s="102"/>
     </row>
@@ -4689,7 +4554,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="115"/>
+      <c r="I20" s="124"/>
       <c r="J20" s="65" t="s">
         <v>12</v>
       </c>
@@ -4704,7 +4569,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="118"/>
+      <c r="V20" s="127"/>
       <c r="W20" s="15"/>
       <c r="Y20" s="102"/>
     </row>
@@ -4716,7 +4581,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="115"/>
+      <c r="I21" s="124"/>
       <c r="J21" s="8"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8"/>
@@ -4731,7 +4596,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="118"/>
+      <c r="V21" s="127"/>
       <c r="W21" s="15"/>
       <c r="Y21" s="102"/>
     </row>
@@ -4743,7 +4608,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="115"/>
+      <c r="I22" s="124"/>
       <c r="J22" s="8"/>
       <c r="K22" s="7"/>
       <c r="L22" s="8"/>
@@ -4758,7 +4623,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="118"/>
+      <c r="V22" s="127"/>
       <c r="W22" s="15"/>
       <c r="Y22" s="98"/>
     </row>
@@ -4770,7 +4635,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="115"/>
+      <c r="I23" s="124"/>
       <c r="J23" s="8"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
@@ -4785,7 +4650,7 @@
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
-      <c r="V23" s="118"/>
+      <c r="V23" s="127"/>
       <c r="W23" s="15"/>
       <c r="Y23" s="98"/>
     </row>
@@ -4797,7 +4662,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="115"/>
+      <c r="I24" s="124"/>
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
       <c r="L24" s="8"/>
@@ -4812,7 +4677,7 @@
       <c r="S24" s="13"/>
       <c r="T24" s="8"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="118"/>
+      <c r="V24" s="127"/>
       <c r="W24" s="15"/>
       <c r="Y24" s="98"/>
     </row>
@@ -4824,7 +4689,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="116"/>
+      <c r="I25" s="125"/>
       <c r="J25" s="11"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -4839,7 +4704,7 @@
       <c r="S25" s="68"/>
       <c r="T25" s="68"/>
       <c r="U25" s="68"/>
-      <c r="V25" s="119"/>
+      <c r="V25" s="128"/>
       <c r="W25" s="16"/>
       <c r="Y25" s="98"/>
     </row>

--- a/TabUltra Project Schedule.xlsx
+++ b/TabUltra Project Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC GAMER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826189AF-6DE9-43D2-80F9-B2989DCCFA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556D66A-91E1-4F8A-9718-D40F97EEE94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="16" r:id="rId1"/>
@@ -255,18 +255,12 @@
     <t>Reg/Sel. Tabs Func</t>
   </si>
   <si>
-    <t>Group/Save Tabs Func</t>
-  </si>
-  <si>
     <t xml:space="preserve">           Group Manage. Func</t>
   </si>
   <si>
     <t xml:space="preserve">        Landing Page Implementation</t>
   </si>
   <si>
-    <t>Tab/Group Metadata</t>
-  </si>
-  <si>
     <t xml:space="preserve">                            Window/UI Implementation</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t xml:space="preserve">           JavaScript/HTML research</t>
   </si>
   <si>
-    <t xml:space="preserve">        UI/Web mockup</t>
-  </si>
-  <si>
     <t>Finalized Req. Doc</t>
   </si>
   <si>
@@ -298,6 +289,15 @@
   </si>
   <si>
     <t>TabUltra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Group/Save Tabs Func</t>
+  </si>
+  <si>
+    <t>Group Metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      UI/Web mockup</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
     <numFmt numFmtId="166" formatCode="\'yy"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -561,6 +561,18 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1052,7 +1064,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1364,6 +1376,13 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2117,8 +2136,8 @@
   </sheetPr>
   <dimension ref="B1:AJ33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2134,7 +2153,7 @@
   <sheetData>
     <row r="1" spans="2:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="W1" s="28" t="s">
         <v>24</v>
@@ -2395,7 +2414,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="108" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" s="108"/>
       <c r="E8" s="108"/>
@@ -2453,7 +2472,7 @@
     <row r="10" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="46"/>
       <c r="D10" s="109" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="109"/>
       <c r="F10" s="109"/>
@@ -2481,14 +2500,14 @@
       <c r="B11" s="46"/>
       <c r="C11" s="7"/>
       <c r="D11" s="109" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E11" s="110"/>
       <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="8"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="129"/>
       <c r="K11" s="50"/>
       <c r="L11" s="8"/>
       <c r="M11" s="50"/>
@@ -2514,7 +2533,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="111"/>
       <c r="G12" s="112" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H12" s="111"/>
       <c r="I12" s="111"/>
@@ -2534,7 +2553,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
       <c r="F13" s="107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="107"/>
       <c r="H13" s="107"/>
@@ -2565,14 +2584,13 @@
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="107" t="s">
+      <c r="G14" s="111"/>
+      <c r="H14" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
       <c r="I14" s="107"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
       <c r="L14" s="8"/>
       <c r="M14" s="7"/>
       <c r="N14" s="8"/>
@@ -2600,12 +2618,12 @@
       <c r="F15" s="8"/>
       <c r="H15" s="8"/>
       <c r="J15" s="107" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K15" s="107"/>
       <c r="L15" s="107"/>
       <c r="M15" s="107"/>
-      <c r="N15" s="8"/>
+      <c r="N15" s="107"/>
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="7"/>
@@ -2633,7 +2651,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="8"/>
       <c r="K16" s="107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="107"/>
       <c r="M16" s="107"/>
@@ -2660,15 +2678,14 @@
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="107"/>
+      <c r="H17" s="107" t="s">
+        <v>66</v>
+      </c>
       <c r="I17" s="107"/>
       <c r="J17" s="107"/>
       <c r="K17" s="107"/>
       <c r="L17" s="107"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="107"/>
       <c r="N17" s="8"/>
       <c r="O17" s="7"/>
       <c r="P17" s="8"/>
@@ -2696,10 +2713,9 @@
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
-      <c r="L18" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="107"/>
+      <c r="M18" s="107" t="s">
+        <v>78</v>
+      </c>
       <c r="N18" s="107"/>
       <c r="O18" s="107"/>
       <c r="P18" s="8"/>
@@ -2729,7 +2745,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="7"/>
       <c r="N19" s="113" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O19" s="113"/>
       <c r="P19" s="113"/>
@@ -2760,7 +2776,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="8"/>
       <c r="O20" s="113" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P20" s="114"/>
       <c r="Q20" s="114"/>
@@ -2787,7 +2803,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
       <c r="P21" s="113" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="113"/>
       <c r="R21" s="113"/>
@@ -2815,7 +2831,7 @@
       <c r="N22" s="8"/>
       <c r="O22" s="7"/>
       <c r="P22" s="113" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
@@ -2843,7 +2859,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="113" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R23" s="113"/>
       <c r="S23" s="113"/>
